--- a/test.xlsx
+++ b/test.xlsx
@@ -38,10 +38,10 @@
     <t>age</t>
   </si>
   <si>
-    <t>abc</t>
+    <t>Karan</t>
   </si>
   <si>
-    <t>xyz</t>
+    <t>Rajput</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1003,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
